--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA66844-FE06-4306-862D-CFBEDA1A5474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2495A-983F-46D2-8D7C-5B6C6F7AD880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,11 +171,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,20 +420,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,7 +761,7 @@
   <dimension ref="B4:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D26" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,35 +789,35 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="5"/>
@@ -776,188 +828,214 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="10"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="5"/>
@@ -968,39 +1046,39 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E2495A-983F-46D2-8D7C-5B6C6F7AD880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE1B168-50E2-4329-A5DD-96753B348B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
+    <workbookView xWindow="3120" yWindow="720" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국은행 시스템정보관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +220,26 @@
   </si>
   <si>
     <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEA59B-D132-4C86-91A1-261DC716802B}">
-  <dimension ref="B4:H31"/>
+  <dimension ref="B4:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D24:D26"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,19 +783,19 @@
   <sheetData>
     <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -793,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>0</v>
@@ -806,7 +818,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>6</v>
@@ -832,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>7</v>
@@ -856,13 +868,13 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>11</v>
@@ -875,7 +887,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="10"/>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>12</v>
@@ -888,7 +900,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>13</v>
@@ -901,7 +913,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>14</v>
@@ -914,7 +926,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="10"/>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>15</v>
@@ -927,12 +939,14 @@
       <c r="C15" s="6"/>
       <c r="D15" s="10"/>
       <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -940,29 +954,25 @@
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
       <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -970,112 +980,120 @@
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="10"/>
@@ -1083,20 +1101,24 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1127,14 +1149,33 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="F15:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE1B168-50E2-4329-A5DD-96753B348B15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47346374-709D-4387-8EC3-901DDD4E4E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="720" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,22 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1 Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,11 +219,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자료실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
+    <t>게시판 - 공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 - 자료실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 - faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID006001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID006002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID006003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID007001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID007002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID007003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID005003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID005002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID005001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004009000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004008000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004007000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004006000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004005000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004004000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID004001000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -324,87 +412,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,18 +428,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,23 +440,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,354 +775,392 @@
   <dimension ref="B4:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="20.625" customWidth="1"/>
+    <col min="2" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="2" t="s">
+      <c r="E19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="2" t="s">
+      <c r="E22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2" t="s">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="F26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="F27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
@@ -1168,14 +1208,13 @@
       <c r="H33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47346374-709D-4387-8EC3-901DDD4E4E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC138DAB-9C57-4653-875D-47FFFE0EDA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="720" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
+    <workbookView xWindow="3225" yWindow="705" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,103 +231,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MID001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID006001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID006002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID006003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID007001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID007002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID007003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID005003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID005002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID005001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004009000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004008000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004007000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004006000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004005000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004004000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004003000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004002000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID004001000</t>
+    <t>MID01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID01001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID01002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003004000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003005000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003006000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003007000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003008000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03003009000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03004001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03004002000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID03004003000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04001001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04002001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04003001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06001001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06002001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID06003001000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,8 +404,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -418,44 +470,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,397 +827,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEA59B-D132-4C86-91A1-261DC716802B}">
-  <dimension ref="B4:H33"/>
+  <dimension ref="A4:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="F27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="F28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1171,7 +1274,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1180,7 +1283,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1189,7 +1292,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC138DAB-9C57-4653-875D-47FFFE0EDA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C98FC-C8BC-43D5-97D7-F4F3826B3364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="705" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
+    <workbookView xWindow="525" yWindow="435" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MID01002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MID03001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,18 +339,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MID04001001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID04002001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MID04003001000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MID06001001000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,6 +348,26 @@
   </si>
   <si>
     <t>MID06003001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID07001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04002000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID04003000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +826,7 @@
   <dimension ref="A4:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,43 +847,43 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>1</v>
@@ -901,13 +897,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>30</v>
@@ -923,7 +919,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
@@ -937,7 +933,7 @@
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>28</v>
@@ -946,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>32</v>
@@ -962,7 +958,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>33</v>
@@ -978,7 +974,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>34</v>
@@ -994,7 +990,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>35</v>
@@ -1010,7 +1006,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>36</v>
@@ -1026,13 +1022,13 @@
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1042,13 +1038,13 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1058,13 +1054,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1074,10 +1070,10 @@
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>16</v>
@@ -1087,7 +1083,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
@@ -1096,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>17</v>
@@ -1112,10 +1108,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>18</v>
@@ -1128,10 +1124,10 @@
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>19</v>
@@ -1139,67 +1135,65 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>40</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>4</v>
@@ -1213,22 +1207,22 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
@@ -1237,14 +1231,14 @@
       <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="6"/>
@@ -1253,14 +1247,14 @@
       <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
@@ -1311,8 +1305,7 @@
       <c r="H33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="5">
     <mergeCell ref="B8:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B26:B28"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C98FC-C8BC-43D5-97D7-F4F3826B3364}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C84037-F45A-4D88-827E-6D7DFD0A221D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="435" windowWidth="21600" windowHeight="14160" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판 - 공지사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,6 +360,34 @@
   </si>
   <si>
     <t>MID04003000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/pds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/noticeView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/noticeWrite, noticeWriteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/noticeEdit, noticeEditAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board/noticeDeleteAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,9 +499,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -501,13 +518,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEA59B-D132-4C86-91A1-261DC716802B}">
-  <dimension ref="A4:H33"/>
+  <dimension ref="A4:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -836,7 +856,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -846,470 +866,538 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
+      <c r="B31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="D32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8" t="s">
+      <c r="G33" s="7"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B8:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C7ABC-BA6B-44AB-957D-BDCD31A309B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931E9AD-708E-47EE-8B35-15566E49D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
@@ -956,7 +956,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E8" sqref="E8:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3931E9AD-708E-47EE-8B35-15566E49D95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475BA088-2AEA-4FA3-ADA2-D61A824A64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,10 +288,6 @@
   </si>
   <si>
     <t>board/faq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도움말</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -612,6 +608,24 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -620,24 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +952,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -974,36 +970,36 @@
   <sheetData>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1020,7 +1016,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1037,13 +1033,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -1053,17 +1049,17 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>89</v>
+      <c r="C6" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>7</v>
@@ -1076,34 +1072,34 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>88</v>
+      <c r="F8" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>45</v>
@@ -1116,12 +1112,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="10" t="s">
         <v>46</v>
       </c>
@@ -1133,12 +1129,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="10" t="s">
         <v>47</v>
       </c>
@@ -1150,12 +1146,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="10" t="s">
         <v>48</v>
       </c>
@@ -1167,12 +1163,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="10" t="s">
         <v>49</v>
       </c>
@@ -1184,12 +1180,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1201,12 +1197,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="10" t="s">
         <v>51</v>
       </c>
@@ -1218,12 +1214,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="10" t="s">
         <v>52</v>
       </c>
@@ -1235,12 +1231,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
@@ -1252,17 +1248,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>87</v>
+      <c r="F17" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>54</v>
@@ -1275,12 +1271,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="10" t="s">
         <v>55</v>
       </c>
@@ -1292,12 +1288,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1309,14 +1305,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>86</v>
+      <c r="C20" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>60</v>
@@ -1334,9 +1330,9 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
@@ -1353,9 +1349,9 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +1369,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>4</v>
@@ -1387,17 +1383,17 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>23</v>
@@ -1410,11 +1406,11 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
       <c r="D25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>24</v>
@@ -1427,11 +1423,11 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
@@ -1444,60 +1440,58 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="F27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="6" t="s">
+      <c r="F28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
@@ -1518,6 +1512,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C6:C19"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -1534,8 +1530,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C6:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/forexcg/docs/IA_v1.0_20210426.xlsx
+++ b/forexcg/docs/IA_v1.0_20210426.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eGovFrameDev-3.6.0-64bit\git\forexcg\forexcg\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475BA088-2AEA-4FA3-ADA2-D61A824A64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97F4FB6-FBE9-462A-B625-D4A337AB1310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DEBFB035-84F8-43E8-8D10-06BA7C63410A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>help/guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID08000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +956,7 @@
   <dimension ref="A2:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B27" sqref="B27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1445,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>89</v>
@@ -1512,11 +1516,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C6:C19"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
     <mergeCell ref="F8:F16"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="A6:A19"/>
@@ -1530,6 +1529,11 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C6:C19"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
